--- a/teaching/traditional_assets/database/data/portugal/portugal_telecom_wireless.xlsx
+++ b/teaching/traditional_assets/database/data/portugal/portugal_telecom_wireless.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.105</v>
+        <v>-0.004699999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.0478</v>
+        <v>-0.117</v>
       </c>
       <c r="G2">
-        <v>0.001038715769593951</v>
+        <v>-0.107838014369693</v>
       </c>
       <c r="H2">
-        <v>-0.04197355996222852</v>
+        <v>-0.124101894186806</v>
       </c>
       <c r="I2">
-        <v>-0.07187044824892791</v>
+        <v>-0.1338994121489223</v>
       </c>
       <c r="J2">
-        <v>-0.07187044824892791</v>
+        <v>-0.112734666357641</v>
       </c>
       <c r="K2">
-        <v>50.2</v>
+        <v>28.6</v>
       </c>
       <c r="L2">
-        <v>0.2370160528800755</v>
+        <v>0.1868060091443501</v>
       </c>
       <c r="M2">
-        <v>38.51</v>
+        <v>29.8</v>
       </c>
       <c r="N2">
-        <v>0.05654088973718983</v>
+        <v>0.05691367456073338</v>
       </c>
       <c r="O2">
-        <v>0.7671314741035856</v>
+        <v>1.041958041958042</v>
       </c>
       <c r="P2">
-        <v>37.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q2">
-        <v>0.05476435178387901</v>
+        <v>0.05691367456073338</v>
       </c>
       <c r="R2">
-        <v>0.743027888446215</v>
+        <v>1.041958041958042</v>
       </c>
       <c r="S2">
-        <v>1.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03142041028304339</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>295.7</v>
+        <v>273.7</v>
       </c>
       <c r="V2">
-        <v>0.4341506386727352</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="W2">
-        <v>0.04010866091403004</v>
+        <v>0.02464879772472637</v>
       </c>
       <c r="X2">
-        <v>0.06598557272725278</v>
+        <v>0.05376678641001482</v>
       </c>
       <c r="Y2">
-        <v>-0.02587691181322273</v>
+        <v>-0.02911798868528846</v>
       </c>
       <c r="Z2">
-        <v>0.2206455005651919</v>
+        <v>0.1758355346273114</v>
       </c>
       <c r="AA2">
-        <v>-0.01585789102972942</v>
+        <v>-0.01982276033002738</v>
       </c>
       <c r="AB2">
-        <v>0.06491105516190288</v>
+        <v>0.05293267961960528</v>
       </c>
       <c r="AC2">
-        <v>-0.08076894619163229</v>
+        <v>-0.07275543994963266</v>
       </c>
       <c r="AD2">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="AE2">
-        <v>13.76080469561466</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>35.96080469561466</v>
+        <v>19.5</v>
       </c>
       <c r="AG2">
-        <v>-259.7391953043853</v>
+        <v>-254.2</v>
       </c>
       <c r="AH2">
-        <v>0.0501502863636225</v>
+        <v>0.03590498987295157</v>
       </c>
       <c r="AI2">
-        <v>0.03006603389596596</v>
+        <v>0.01519046506193036</v>
       </c>
       <c r="AJ2">
-        <v>-0.6164294172829325</v>
+        <v>-0.9435783221974757</v>
       </c>
       <c r="AK2">
-        <v>-0.2884834545770742</v>
+        <v>-0.2516831683168317</v>
       </c>
       <c r="AL2">
-        <v>0.586</v>
+        <v>2.32</v>
       </c>
       <c r="AM2">
-        <v>0.1259999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="AN2">
-        <v>-2.560553633217994</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="AO2">
-        <v>-28.15699658703072</v>
+        <v>-8.836206896551724</v>
       </c>
       <c r="AP2">
-        <v>29.95838469485414</v>
+        <v>15.40606060606061</v>
       </c>
       <c r="AQ2">
-        <v>-130.952380952381</v>
+        <v>-32.03125000000001</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.105</v>
+        <v>-0.004699999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.0478</v>
+        <v>-0.117</v>
       </c>
       <c r="G3">
-        <v>0.001038715769593951</v>
+        <v>-0.107838014369693</v>
       </c>
       <c r="H3">
-        <v>-0.04197355996222852</v>
+        <v>-0.124101894186806</v>
       </c>
       <c r="I3">
-        <v>-0.07187044824892791</v>
+        <v>-0.1338994121489223</v>
       </c>
       <c r="J3">
-        <v>-0.07187044824892791</v>
+        <v>-0.112734666357641</v>
       </c>
       <c r="K3">
-        <v>50.2</v>
+        <v>28.6</v>
       </c>
       <c r="L3">
-        <v>0.2370160528800755</v>
+        <v>0.1868060091443501</v>
       </c>
       <c r="M3">
-        <v>38.51</v>
+        <v>29.8</v>
       </c>
       <c r="N3">
-        <v>0.05654088973718983</v>
+        <v>0.05691367456073338</v>
       </c>
       <c r="O3">
-        <v>0.7671314741035856</v>
+        <v>1.041958041958042</v>
       </c>
       <c r="P3">
-        <v>37.3</v>
+        <v>29.8</v>
       </c>
       <c r="Q3">
-        <v>0.05476435178387901</v>
+        <v>0.05691367456073338</v>
       </c>
       <c r="R3">
-        <v>0.743027888446215</v>
+        <v>1.041958041958042</v>
       </c>
       <c r="S3">
-        <v>1.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.03142041028304339</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>295.7</v>
+        <v>273.7</v>
       </c>
       <c r="V3">
-        <v>0.4341506386727352</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="W3">
-        <v>0.04010866091403004</v>
+        <v>0.02464879772472637</v>
       </c>
       <c r="X3">
-        <v>0.06598557272725278</v>
+        <v>0.05376678641001482</v>
       </c>
       <c r="Y3">
-        <v>-0.02587691181322273</v>
+        <v>-0.02911798868528846</v>
       </c>
       <c r="Z3">
-        <v>0.2206455005651919</v>
+        <v>0.1758355346273114</v>
       </c>
       <c r="AA3">
-        <v>-0.01585789102972942</v>
+        <v>-0.01982276033002738</v>
       </c>
       <c r="AB3">
-        <v>0.06491105516190288</v>
+        <v>0.05293267961960528</v>
       </c>
       <c r="AC3">
-        <v>-0.08076894619163229</v>
+        <v>-0.07275543994963266</v>
       </c>
       <c r="AD3">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="AE3">
-        <v>13.76080469561466</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>35.96080469561466</v>
+        <v>19.5</v>
       </c>
       <c r="AG3">
-        <v>-259.7391953043853</v>
+        <v>-254.2</v>
       </c>
       <c r="AH3">
-        <v>0.0501502863636225</v>
+        <v>0.03590498987295157</v>
       </c>
       <c r="AI3">
-        <v>0.03006603389596596</v>
+        <v>0.01519046506193036</v>
       </c>
       <c r="AJ3">
-        <v>-0.6164294172829325</v>
+        <v>-0.9435783221974757</v>
       </c>
       <c r="AK3">
-        <v>-0.2884834545770742</v>
+        <v>-0.2516831683168317</v>
       </c>
       <c r="AL3">
-        <v>0.586</v>
+        <v>2.32</v>
       </c>
       <c r="AM3">
-        <v>0.1259999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="AN3">
-        <v>-2.560553633217994</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="AO3">
-        <v>-28.15699658703072</v>
+        <v>-8.836206896551724</v>
       </c>
       <c r="AP3">
-        <v>29.95838469485414</v>
+        <v>15.40606060606061</v>
       </c>
       <c r="AQ3">
-        <v>-130.952380952381</v>
+        <v>-32.03125000000001</v>
       </c>
     </row>
   </sheetData>
